--- a/cyberbullying.xlsx
+++ b/cyberbullying.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\venv\ml\predic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42EE130E-B312-4CB0-9A48-05CE85C943BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33F5550B-1AB5-46FF-9D90-18D8F5DD3445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1400" yWindow="2440" windowWidth="16280" windowHeight="11260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1740" yWindow="2780" windowWidth="16280" windowHeight="11260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4540,8 +4540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H651"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C16" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="C338" workbookViewId="0">
+      <selection activeCell="C338" sqref="C338"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="19" customHeight="1" x14ac:dyDescent="0.35"/>
